--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_22_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_22_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2069200.545490554</v>
+        <v>2066703.379313689</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673428</v>
+        <v>603248.4937673438</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
-        <v>247.6326277687279</v>
+        <v>191.7549174328598</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T11" t="n">
-        <v>46.08353999181185</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
         <v>302.2658320988205</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247809</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1540,13 +1540,13 @@
         <v>98.44591140433869</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H13" t="n">
         <v>97.77987829572822</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124548</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S13" t="n">
         <v>142.7938887128493</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
         <v>318.297755152415</v>
@@ -1616,13 +1616,13 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>324.9882456722942</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958324</v>
       </c>
       <c r="T14" t="n">
         <v>156.9428335210276</v>
@@ -1673,7 +1673,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>236.862168396134</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247811</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145475</v>
       </c>
       <c r="S16" t="n">
         <v>142.7938887128493</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>288.7835684262953</v>
+        <v>288.7835684262956</v>
       </c>
       <c r="C17" t="n">
-        <v>271.3226185338223</v>
+        <v>271.3226185338225</v>
       </c>
       <c r="D17" t="n">
-        <v>260.7327683834977</v>
+        <v>260.732768383498</v>
       </c>
       <c r="E17" t="n">
-        <v>287.9800968350766</v>
+        <v>287.9800968350768</v>
       </c>
       <c r="F17" t="n">
-        <v>312.9257725045262</v>
+        <v>312.9257725045264</v>
       </c>
       <c r="G17" t="n">
-        <v>316.9714524162682</v>
+        <v>316.9714524162684</v>
       </c>
       <c r="H17" t="n">
-        <v>200.6574911501352</v>
+        <v>148.3752332772562</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>15.23748855099059</v>
+        <v>15.23748855099085</v>
       </c>
       <c r="T17" t="n">
-        <v>57.68543902955926</v>
+        <v>109.9676969024352</v>
       </c>
       <c r="U17" t="n">
-        <v>157.0448987217167</v>
+        <v>157.044898721717</v>
       </c>
       <c r="V17" t="n">
-        <v>233.8019852329497</v>
+        <v>233.8019852329499</v>
       </c>
       <c r="W17" t="n">
-        <v>255.2906954802278</v>
+        <v>255.290695480228</v>
       </c>
       <c r="X17" t="n">
-        <v>275.7808274412838</v>
+        <v>275.780827441284</v>
       </c>
       <c r="Y17" t="n">
-        <v>292.2876654188684</v>
+        <v>292.2876654188686</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>85.88170694475231</v>
       </c>
       <c r="C19" t="n">
-        <v>73.29654786144259</v>
+        <v>73.29654786144285</v>
       </c>
       <c r="D19" t="n">
-        <v>54.66519978102711</v>
+        <v>54.66519978102737</v>
       </c>
       <c r="E19" t="n">
-        <v>54.94401059192754</v>
+        <v>52.48368940938418</v>
       </c>
       <c r="F19" t="n">
-        <v>51.470774785746</v>
+        <v>51.47077478574626</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>72.07553502184324</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>50.80474167713579</v>
       </c>
       <c r="I19" t="n">
-        <v>2.402147172652853</v>
+        <v>2.402147172653109</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>95.81875209425667</v>
+        <v>95.81875209425689</v>
       </c>
       <c r="T19" t="n">
-        <v>125.598676038984</v>
+        <v>125.5986760389842</v>
       </c>
       <c r="U19" t="n">
-        <v>192.2615649684276</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>158.1873700866428</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>192.5727250994058</v>
+        <v>192.572725099406</v>
       </c>
       <c r="X19" t="n">
-        <v>131.7593821518519</v>
+        <v>139.2378239015307</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>288.7835684262953</v>
+        <v>288.7835684262956</v>
       </c>
       <c r="C20" t="n">
-        <v>271.3226185338223</v>
+        <v>271.3226185338225</v>
       </c>
       <c r="D20" t="n">
-        <v>260.7327683834977</v>
+        <v>260.732768383498</v>
       </c>
       <c r="E20" t="n">
-        <v>287.9800968350766</v>
+        <v>287.9800968350768</v>
       </c>
       <c r="F20" t="n">
-        <v>312.9257725045262</v>
+        <v>312.9257725045264</v>
       </c>
       <c r="G20" t="n">
-        <v>316.9714524162682</v>
+        <v>316.9714524162684</v>
       </c>
       <c r="H20" t="n">
-        <v>200.6574911501352</v>
+        <v>200.6574911501355</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>15.23748855099059</v>
+        <v>15.23748855099086</v>
       </c>
       <c r="T20" t="n">
-        <v>109.9676969024349</v>
+        <v>109.9676969024352</v>
       </c>
       <c r="U20" t="n">
-        <v>157.0448987217167</v>
+        <v>157.044898721717</v>
       </c>
       <c r="V20" t="n">
-        <v>181.519727360074</v>
+        <v>233.8019852329499</v>
       </c>
       <c r="W20" t="n">
-        <v>255.2906954802278</v>
+        <v>255.290695480228</v>
       </c>
       <c r="X20" t="n">
-        <v>275.7808274412838</v>
+        <v>223.4985695684042</v>
       </c>
       <c r="Y20" t="n">
-        <v>292.2876654188684</v>
+        <v>292.2876654188686</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>85.88170694475205</v>
+        <v>85.88170694475231</v>
       </c>
       <c r="C22" t="n">
-        <v>73.29654786144259</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>54.66519978102711</v>
+        <v>54.66519978102737</v>
       </c>
       <c r="E22" t="n">
-        <v>52.48368940938393</v>
+        <v>52.48368940938418</v>
       </c>
       <c r="F22" t="n">
-        <v>53.93109596828975</v>
+        <v>51.47077478574626</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>72.07553502184324</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>50.80474167713579</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>2.402147172653123</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>95.81875209425689</v>
       </c>
       <c r="T22" t="n">
-        <v>125.598676038984</v>
+        <v>125.5986760389842</v>
       </c>
       <c r="U22" t="n">
-        <v>192.2615649684276</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>158.1873700866428</v>
+        <v>160.6476912691839</v>
       </c>
       <c r="W22" t="n">
-        <v>192.5727250994058</v>
+        <v>192.572725099406</v>
       </c>
       <c r="X22" t="n">
-        <v>131.7593821518519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>124.6343801149095</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>288.7835684262953</v>
+        <v>288.7835684262955</v>
       </c>
       <c r="C23" t="n">
-        <v>271.3226185338223</v>
+        <v>271.3226185338225</v>
       </c>
       <c r="D23" t="n">
-        <v>260.7327683834977</v>
+        <v>260.7327683834978</v>
       </c>
       <c r="E23" t="n">
-        <v>287.9800968350766</v>
+        <v>287.9800968350767</v>
       </c>
       <c r="F23" t="n">
-        <v>312.9257725045262</v>
+        <v>312.9257725045263</v>
       </c>
       <c r="G23" t="n">
-        <v>316.9714524162682</v>
+        <v>275.2463362593762</v>
       </c>
       <c r="H23" t="n">
-        <v>200.6574911501352</v>
+        <v>200.6574911501354</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>15.23748855099059</v>
+        <v>15.23748855099076</v>
       </c>
       <c r="T23" t="n">
-        <v>109.9676969024349</v>
+        <v>109.9676969024351</v>
       </c>
       <c r="U23" t="n">
-        <v>157.0448987217167</v>
+        <v>157.0448987217169</v>
       </c>
       <c r="V23" t="n">
-        <v>233.8019852329497</v>
+        <v>233.8019852329498</v>
       </c>
       <c r="W23" t="n">
-        <v>213.5655793233364</v>
+        <v>255.2906954802279</v>
       </c>
       <c r="X23" t="n">
-        <v>275.7808274412838</v>
+        <v>275.7808274412839</v>
       </c>
       <c r="Y23" t="n">
-        <v>292.2876654188684</v>
+        <v>292.2876654188685</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.817218682477</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>85.88170694475205</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>73.29654786144259</v>
+        <v>73.29654786144275</v>
       </c>
       <c r="D25" t="n">
-        <v>54.66519978102711</v>
+        <v>54.66519978102727</v>
       </c>
       <c r="E25" t="n">
-        <v>52.48368940938393</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>51.470774785746</v>
+        <v>51.47077478574616</v>
       </c>
       <c r="G25" t="n">
-        <v>72.07553502184298</v>
+        <v>72.07553502184314</v>
       </c>
       <c r="H25" t="n">
-        <v>50.80474167713554</v>
+        <v>50.80474167713569</v>
       </c>
       <c r="I25" t="n">
-        <v>2.402147172652853</v>
+        <v>2.402147172653024</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>95.81875209425667</v>
+        <v>95.81875209425681</v>
       </c>
       <c r="T25" t="n">
-        <v>125.598676038984</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>192.2615649684278</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>165.6658118363221</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>192.5727250994059</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>131.7593821518521</v>
       </c>
       <c r="Y25" t="n">
-        <v>127.0947012974532</v>
+        <v>124.6343801149097</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2561,7 @@
         <v>307.7079050020904</v>
       </c>
       <c r="E26" t="n">
-        <v>0.05666190488329107</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>359.9009091231189</v>
@@ -2570,7 +2570,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2615,13 +2615,13 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X26" t="n">
         <v>322.7559640598765</v>
       </c>
       <c r="Y26" t="n">
-        <v>339.262802037461</v>
+        <v>222.4736344426693</v>
       </c>
     </row>
     <row r="27">
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.817218682477</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734102899</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2719,19 +2719,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2798,7 +2798,7 @@
         <v>307.7079050020904</v>
       </c>
       <c r="E29" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>359.9009091231189</v>
@@ -2807,7 +2807,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T29" t="n">
-        <v>90.16702170202623</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U29" t="n">
         <v>204.0200353403094</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>339.262802037461</v>
+        <v>297.5969707338182</v>
       </c>
     </row>
     <row r="30">
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734102899</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2968,7 +2968,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>12.25712311121262</v>
+        <v>12.25712311121265</v>
       </c>
       <c r="T32" t="n">
-        <v>106.9873314626569</v>
+        <v>106.987331462657</v>
       </c>
       <c r="U32" t="n">
         <v>154.0645332819388</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.817218682477</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734102899</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>82.90134150497408</v>
+        <v>82.9013415049741</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>70.31618242166464</v>
       </c>
       <c r="D34" t="n">
-        <v>51.68483434124914</v>
+        <v>51.68483434124916</v>
       </c>
       <c r="E34" t="n">
-        <v>49.50332396960596</v>
+        <v>49.50332396960597</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>48.49040934596805</v>
       </c>
       <c r="G34" t="n">
-        <v>69.09516958206501</v>
+        <v>69.09516958206503</v>
       </c>
       <c r="H34" t="n">
-        <v>47.82437623735757</v>
+        <v>47.82437623735758</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>34.66612275297558</v>
       </c>
       <c r="S34" t="n">
-        <v>92.83838665447868</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>122.618310599206</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>189.2811995286496</v>
       </c>
       <c r="V34" t="n">
-        <v>189.8731273998411</v>
+        <v>155.2070046468648</v>
       </c>
       <c r="W34" t="n">
-        <v>189.5923596596278</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>128.7790167120739</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>121.6540146751316</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353754</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429024</v>
       </c>
       <c r="D35" t="n">
-        <v>256.9983213925781</v>
+        <v>256.9983213925778</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441566</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136063</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253483</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592153</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007094</v>
+        <v>11.50304156007068</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115152</v>
+        <v>106.233249911515</v>
       </c>
       <c r="U35" t="n">
-        <v>153.3104517307971</v>
+        <v>153.3104517307968</v>
       </c>
       <c r="V35" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420297</v>
       </c>
       <c r="W35" t="n">
-        <v>251.5562484893081</v>
+        <v>251.5562484893078</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503642</v>
+        <v>272.0463804503639</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279484</v>
       </c>
     </row>
     <row r="36">
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.1472599538324</v>
+        <v>82.14725995383213</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052294</v>
+        <v>111.7690391349181</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010746</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>90.95618068285724</v>
+        <v>48.74924241846401</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482608</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092306</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621562</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.084305103337</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480643</v>
+        <v>121.864229048064</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>188.5271179775077</v>
       </c>
       <c r="V37" t="n">
-        <v>154.4529230957231</v>
+        <v>154.4529230957228</v>
       </c>
       <c r="W37" t="n">
-        <v>188.8382781084861</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609323</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239896</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353755</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429027</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D38" t="n">
-        <v>256.9983213925781</v>
+        <v>256.9983213925779</v>
       </c>
       <c r="E38" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441567</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G38" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253484</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007094</v>
+        <v>11.50304156007078</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U38" t="n">
-        <v>153.3104517307971</v>
+        <v>153.3104517307969</v>
       </c>
       <c r="V38" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W38" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503642</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.1472599538324</v>
+        <v>82.14725995383223</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052294</v>
+        <v>69.56210087052277</v>
       </c>
       <c r="D40" t="n">
-        <v>93.13769105450045</v>
+        <v>50.93075279010729</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846411</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482618</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092316</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>99.36210032693477</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>92.084305103337</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480641</v>
       </c>
       <c r="U40" t="n">
-        <v>188.527117977508</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W40" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609323</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239897</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3740,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D41" t="n">
         <v>256.998321392578</v>
@@ -3755,7 +3755,7 @@
         <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007086</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U41" t="n">
         <v>153.310451730797</v>
@@ -3806,7 +3806,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="42">
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052285</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846419</v>
+        <v>99.70874824091575</v>
       </c>
       <c r="F43" t="n">
-        <v>89.94326605922031</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092325</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H43" t="n">
-        <v>47.0702946862158</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333692</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480642</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>154.452923095723</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="44">
@@ -3977,13 +3977,13 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D44" t="n">
         <v>256.998321392578</v>
       </c>
       <c r="E44" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441575</v>
       </c>
       <c r="F44" t="n">
         <v>309.1913255136064</v>
@@ -3992,7 +3992,7 @@
         <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007086</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U44" t="n">
         <v>153.310451730797</v>
@@ -4043,7 +4043,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383232</v>
+        <v>124.3541982182263</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052285</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>92.28848050112519</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482627</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,13 +4183,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333692</v>
+        <v>92.08430510333687</v>
       </c>
       <c r="T46" t="n">
         <v>121.8642290480642</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>154.452923095723</v>
@@ -4198,10 +4198,10 @@
         <v>188.838278108486</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609322</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>120.8999331239898</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1696.959858232656</v>
+        <v>1640.517726580263</v>
       </c>
       <c r="C11" t="n">
-        <v>1696.959858232656</v>
+        <v>1640.517726580263</v>
       </c>
       <c r="D11" t="n">
-        <v>1386.143792573978</v>
+        <v>1329.701660921586</v>
       </c>
       <c r="E11" t="n">
-        <v>1047.805172923807</v>
+        <v>991.3630412714148</v>
       </c>
       <c r="F11" t="n">
-        <v>684.2689010822731</v>
+        <v>627.8267694298805</v>
       </c>
       <c r="G11" t="n">
-        <v>316.6460838753429</v>
+        <v>260.203952222951</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>3262.764786084339</v>
+        <v>3262.764786084341</v>
       </c>
       <c r="T11" t="n">
-        <v>3216.215755789579</v>
+        <v>3104.236671416636</v>
       </c>
       <c r="U11" t="n">
-        <v>3010.13491201149</v>
+        <v>2898.155827638546</v>
       </c>
       <c r="V11" t="n">
-        <v>3010.13491201149</v>
+        <v>2614.542573243049</v>
       </c>
       <c r="W11" t="n">
-        <v>2704.815889689449</v>
+        <v>2309.223550921008</v>
       </c>
       <c r="X11" t="n">
-        <v>2378.799764376442</v>
+        <v>1983.207425608001</v>
       </c>
       <c r="Y11" t="n">
-        <v>2036.110065348704</v>
+        <v>1640.517726580263</v>
       </c>
     </row>
     <row r="12">
@@ -5094,40 +5094,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064633</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
         <v>1685.951113992584</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052951</v>
+        <v>759.4662498052946</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254615</v>
+        <v>637.979699825461</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611991</v>
+        <v>535.3126933611985</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268793</v>
+        <v>434.8492327268787</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770417</v>
+        <v>335.4089181770416</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998339</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H13" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328087</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337114</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
       </c>
       <c r="N13" t="n">
-        <v>1550.274078843938</v>
+        <v>1550.274078843939</v>
       </c>
       <c r="O13" t="n">
         <v>1896.109063016759</v>
@@ -5242,7 +5242,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874615</v>
+        <v>893.665081687461</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1983.207425608</v>
+        <v>1404.8025029403</v>
       </c>
       <c r="C14" t="n">
-        <v>1661.694541615661</v>
+        <v>1083.289618947962</v>
       </c>
       <c r="D14" t="n">
-        <v>1350.878475956984</v>
+        <v>772.4735532892846</v>
       </c>
       <c r="E14" t="n">
-        <v>1012.539856306813</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="F14" t="n">
-        <v>684.2689010822733</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="G14" t="n">
-        <v>316.6460838753429</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3262.76478608434</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T14" t="n">
-        <v>3104.236671416635</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U14" t="n">
-        <v>2898.155827638545</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V14" t="n">
-        <v>2614.542573243048</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W14" t="n">
-        <v>2309.223550921007</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X14" t="n">
-        <v>1983.207425608</v>
+        <v>1983.207425607999</v>
       </c>
       <c r="Y14" t="n">
-        <v>1983.207425608</v>
+        <v>1743.952710056349</v>
       </c>
     </row>
     <row r="15">
@@ -5331,40 +5331,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387314</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031485</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
         <v>1685.951113992584</v>
@@ -5379,16 +5379,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T15" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199866</v>
@@ -5400,7 +5400,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052945</v>
+        <v>759.4662498052949</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254609</v>
+        <v>637.9796998254614</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611985</v>
+        <v>535.312693361199</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268787</v>
+        <v>434.8492327268791</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770417</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998339</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657646</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315258</v>
+        <v>158.1401341315255</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328088</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337114</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
@@ -5452,19 +5452,19 @@
         <v>1896.109063016758</v>
       </c>
       <c r="P16" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702825</v>
       </c>
       <c r="Q16" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R16" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S16" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T16" t="n">
-        <v>1938.403572105845</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U16" t="n">
         <v>1696.750338179563</v>
@@ -5479,7 +5479,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.665081687461</v>
+        <v>893.6650816874613</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1733.774944536554</v>
+        <v>1680.964583048798</v>
       </c>
       <c r="C17" t="n">
-        <v>1459.711693492289</v>
+        <v>1406.901332004532</v>
       </c>
       <c r="D17" t="n">
-        <v>1196.345260781685</v>
+        <v>1143.534899293928</v>
       </c>
       <c r="E17" t="n">
-        <v>905.4562740795873</v>
+        <v>852.6459125918304</v>
       </c>
       <c r="F17" t="n">
-        <v>589.3696351861264</v>
+        <v>536.5592736983695</v>
       </c>
       <c r="G17" t="n">
-        <v>269.1964509272696</v>
+        <v>216.3860894395129</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3310.214419032413</v>
+        <v>3310.214419032412</v>
       </c>
       <c r="T17" t="n">
-        <v>3251.946298800535</v>
+        <v>3199.135937312781</v>
       </c>
       <c r="U17" t="n">
-        <v>3093.315087970519</v>
+        <v>3040.504726482764</v>
       </c>
       <c r="V17" t="n">
-        <v>2857.151466523095</v>
+        <v>2804.341105035339</v>
       </c>
       <c r="W17" t="n">
-        <v>2599.282077149127</v>
+        <v>2546.471715661371</v>
       </c>
       <c r="X17" t="n">
-        <v>2320.715584784194</v>
+        <v>2267.905223296438</v>
       </c>
       <c r="Y17" t="n">
-        <v>2025.475518704529</v>
+        <v>1972.665157216773</v>
       </c>
     </row>
     <row r="18">
@@ -5568,31 +5568,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
@@ -5625,7 +5625,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5634,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>619.6025238727341</v>
+        <v>427.3188191687823</v>
       </c>
       <c r="C19" t="n">
-        <v>545.5656068409739</v>
+        <v>353.2819021370218</v>
       </c>
       <c r="D19" t="n">
-        <v>490.3482333247849</v>
+        <v>298.0645286208326</v>
       </c>
       <c r="E19" t="n">
-        <v>434.8492327268783</v>
+        <v>245.0507009345859</v>
       </c>
       <c r="F19" t="n">
-        <v>382.8585511251147</v>
+        <v>193.060019332822</v>
       </c>
       <c r="G19" t="n">
-        <v>215.1557144998336</v>
+        <v>120.2564486036874</v>
       </c>
       <c r="H19" t="n">
-        <v>68.93852771769137</v>
+        <v>68.93852771769161</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5695,28 +5695,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S19" t="n">
-        <v>1830.507929811466</v>
+        <v>1740.677472568994</v>
       </c>
       <c r="T19" t="n">
-        <v>1703.640580277138</v>
+        <v>1613.810123034666</v>
       </c>
       <c r="U19" t="n">
-        <v>1509.436979298929</v>
+        <v>1324.707256160309</v>
       </c>
       <c r="V19" t="n">
-        <v>1349.651756989188</v>
+        <v>1070.022767954423</v>
       </c>
       <c r="W19" t="n">
-        <v>1155.133852848375</v>
+        <v>875.5048638136084</v>
       </c>
       <c r="X19" t="n">
-        <v>1022.043567846504</v>
+        <v>734.8605972464056</v>
       </c>
       <c r="Y19" t="n">
-        <v>801.2509887029738</v>
+        <v>514.0680181028755</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1733.774944536554</v>
+        <v>1733.774944536555</v>
       </c>
       <c r="C20" t="n">
-        <v>1459.711693492289</v>
+        <v>1459.71169349229</v>
       </c>
       <c r="D20" t="n">
-        <v>1196.345260781685</v>
+        <v>1196.345260781686</v>
       </c>
       <c r="E20" t="n">
         <v>905.4562740795878</v>
       </c>
       <c r="F20" t="n">
-        <v>589.369635186127</v>
+        <v>589.3696351861267</v>
       </c>
       <c r="G20" t="n">
-        <v>269.1964509272696</v>
+        <v>269.1964509272697</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3310.214419032413</v>
+        <v>3310.214419032412</v>
       </c>
       <c r="T20" t="n">
-        <v>3199.135937312782</v>
+        <v>3199.135937312781</v>
       </c>
       <c r="U20" t="n">
-        <v>3040.504726482765</v>
+        <v>3040.504726482764</v>
       </c>
       <c r="V20" t="n">
-        <v>2857.151466523094</v>
+        <v>2804.341105035339</v>
       </c>
       <c r="W20" t="n">
-        <v>2599.282077149127</v>
+        <v>2546.471715661371</v>
       </c>
       <c r="X20" t="n">
-        <v>2320.715584784194</v>
+        <v>2320.715584784195</v>
       </c>
       <c r="Y20" t="n">
-        <v>2025.475518704529</v>
+        <v>2025.47551870453</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5805,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5847,34 +5847,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>714.5017897688808</v>
+        <v>522.2180850649287</v>
       </c>
       <c r="C22" t="n">
-        <v>640.4648727371207</v>
+        <v>353.2819021370218</v>
       </c>
       <c r="D22" t="n">
-        <v>585.2474992209317</v>
+        <v>298.0645286208326</v>
       </c>
       <c r="E22" t="n">
-        <v>532.2336715346853</v>
+        <v>245.0507009345859</v>
       </c>
       <c r="F22" t="n">
-        <v>477.7578170212613</v>
+        <v>193.060019332822</v>
       </c>
       <c r="G22" t="n">
-        <v>310.0549803959803</v>
+        <v>120.2564486036874</v>
       </c>
       <c r="H22" t="n">
-        <v>163.8377936138381</v>
+        <v>68.93852771769163</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5929,31 +5929,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S22" t="n">
-        <v>1735.608663915319</v>
+        <v>1830.507929811465</v>
       </c>
       <c r="T22" t="n">
-        <v>1608.741314380992</v>
+        <v>1703.640580277138</v>
       </c>
       <c r="U22" t="n">
-        <v>1414.537713402782</v>
+        <v>1414.537713402781</v>
       </c>
       <c r="V22" t="n">
-        <v>1254.752491093042</v>
+        <v>1252.267318181383</v>
       </c>
       <c r="W22" t="n">
-        <v>1060.234586952228</v>
+        <v>1057.749414040569</v>
       </c>
       <c r="X22" t="n">
-        <v>927.1443019503572</v>
+        <v>829.759863142552</v>
       </c>
       <c r="Y22" t="n">
-        <v>801.2509887029738</v>
+        <v>608.9672839990219</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1733.992572689841</v>
+        <v>1691.845990713182</v>
       </c>
       <c r="C23" t="n">
-        <v>1459.929321645576</v>
+        <v>1417.782739668917</v>
       </c>
       <c r="D23" t="n">
-        <v>1196.562888934972</v>
+        <v>1154.416306958313</v>
       </c>
       <c r="E23" t="n">
-        <v>905.6739022328749</v>
+        <v>863.5273202562157</v>
       </c>
       <c r="F23" t="n">
-        <v>589.587263339414</v>
+        <v>547.4406813627547</v>
       </c>
       <c r="G23" t="n">
-        <v>269.4140790805571</v>
+        <v>269.4140790805573</v>
       </c>
       <c r="H23" t="n">
-        <v>66.72974458547107</v>
+        <v>66.7297445854711</v>
       </c>
       <c r="I23" t="n">
-        <v>66.72974458547107</v>
+        <v>66.7297445854711</v>
       </c>
       <c r="J23" t="n">
         <v>255.6088755444965</v>
       </c>
       <c r="K23" t="n">
-        <v>589.428249234343</v>
+        <v>589.4282492343428</v>
       </c>
       <c r="L23" t="n">
         <v>1040.462462482752</v>
       </c>
       <c r="M23" t="n">
-        <v>1584.658146665771</v>
+        <v>1573.994367154676</v>
       </c>
       <c r="N23" t="n">
-        <v>2131.436963724554</v>
+        <v>2120.773184213458</v>
       </c>
       <c r="O23" t="n">
-        <v>2634.409434603891</v>
+        <v>2623.745655092795</v>
       </c>
       <c r="P23" t="n">
-        <v>3029.183800961069</v>
+        <v>3018.520021449973</v>
       </c>
       <c r="Q23" t="n">
-        <v>3277.470162716751</v>
+        <v>3277.470162716752</v>
       </c>
       <c r="R23" t="n">
         <v>3336.487229273554</v>
       </c>
       <c r="S23" t="n">
-        <v>3321.095826696795</v>
+        <v>3321.095826696796</v>
       </c>
       <c r="T23" t="n">
-        <v>3210.017344977164</v>
+        <v>3210.017344977165</v>
       </c>
       <c r="U23" t="n">
-        <v>3051.386134147147</v>
+        <v>3051.386134147148</v>
       </c>
       <c r="V23" t="n">
         <v>2815.222512699724</v>
       </c>
       <c r="W23" t="n">
-        <v>2599.499705302414</v>
+        <v>2557.353123325756</v>
       </c>
       <c r="X23" t="n">
-        <v>2320.933212937482</v>
+        <v>2278.786630960823</v>
       </c>
       <c r="Y23" t="n">
-        <v>2025.693146857816</v>
+        <v>1983.546564881158</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.7614826343962</v>
+        <v>941.7614826343959</v>
       </c>
       <c r="C24" t="n">
-        <v>767.3084533532692</v>
+        <v>767.3084533532689</v>
       </c>
       <c r="D24" t="n">
-        <v>618.3740436920179</v>
+        <v>618.3740436920176</v>
       </c>
       <c r="E24" t="n">
-        <v>459.1365886865625</v>
+        <v>459.1365886865621</v>
       </c>
       <c r="F24" t="n">
-        <v>312.6020307134474</v>
+        <v>312.6020307134471</v>
       </c>
       <c r="G24" t="n">
-        <v>176.2389305460656</v>
+        <v>176.2389305460652</v>
       </c>
       <c r="H24" t="n">
-        <v>85.7370361839331</v>
+        <v>85.73703618393272</v>
       </c>
       <c r="I24" t="n">
-        <v>66.72974458547107</v>
+        <v>66.7297445854711</v>
       </c>
       <c r="J24" t="n">
         <v>160.4070140760884</v>
       </c>
       <c r="K24" t="n">
-        <v>398.6712130564352</v>
+        <v>398.6712130564355</v>
       </c>
       <c r="L24" t="n">
-        <v>765.3693733691006</v>
+        <v>765.3693733691007</v>
       </c>
       <c r="M24" t="n">
         <v>1212.645698591416</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>427.5364473220681</v>
+        <v>522.4357132182158</v>
       </c>
       <c r="C25" t="n">
-        <v>353.4995302903079</v>
+        <v>448.3987961864555</v>
       </c>
       <c r="D25" t="n">
-        <v>298.2821567741188</v>
+        <v>393.1814226702663</v>
       </c>
       <c r="E25" t="n">
-        <v>245.2683290878725</v>
+        <v>245.2683290878732</v>
       </c>
       <c r="F25" t="n">
-        <v>193.2776474861088</v>
+        <v>193.2776474861093</v>
       </c>
       <c r="G25" t="n">
-        <v>120.4740767569745</v>
+        <v>120.4740767569749</v>
       </c>
       <c r="H25" t="n">
-        <v>69.15615587097901</v>
+        <v>69.15615587097921</v>
       </c>
       <c r="I25" t="n">
-        <v>66.72974458547107</v>
+        <v>66.7297445854711</v>
       </c>
       <c r="J25" t="n">
         <v>111.8523770324066</v>
       </c>
       <c r="K25" t="n">
-        <v>315.839559981283</v>
+        <v>315.8395599812829</v>
       </c>
       <c r="L25" t="n">
         <v>632.3993584297791</v>
       </c>
       <c r="M25" t="n">
-        <v>976.5564040293282</v>
+        <v>976.5564040293281</v>
       </c>
       <c r="N25" t="n">
         <v>1317.964780735193</v>
@@ -6163,34 +6163,34 @@
         <v>1617.294379655606</v>
       </c>
       <c r="P25" t="n">
-        <v>1849.901880089266</v>
+        <v>1849.901880089265</v>
       </c>
       <c r="Q25" t="n">
         <v>1927.51217624178</v>
       </c>
       <c r="R25" t="n">
-        <v>1927.51217624178</v>
+        <v>1837.681718999308</v>
       </c>
       <c r="S25" t="n">
-        <v>1830.725557964754</v>
+        <v>1740.895100722281</v>
       </c>
       <c r="T25" t="n">
-        <v>1703.858208430426</v>
+        <v>1519.128485291807</v>
       </c>
       <c r="U25" t="n">
-        <v>1414.75534155607</v>
+        <v>1324.924884313597</v>
       </c>
       <c r="V25" t="n">
-        <v>1160.070853350183</v>
+        <v>1157.585680438524</v>
       </c>
       <c r="W25" t="n">
-        <v>870.653683313222</v>
+        <v>963.0677762977098</v>
       </c>
       <c r="X25" t="n">
-        <v>642.6641324152047</v>
+        <v>829.9774912958391</v>
       </c>
       <c r="Y25" t="n">
-        <v>514.285646256161</v>
+        <v>704.0841780484556</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1680.408984975468</v>
+        <v>1430.217783284951</v>
       </c>
       <c r="C26" t="n">
-        <v>1358.896100983129</v>
+        <v>1108.704899292613</v>
       </c>
       <c r="D26" t="n">
-        <v>1048.080035324452</v>
+        <v>797.8888336339355</v>
       </c>
       <c r="E26" t="n">
-        <v>1048.022801077095</v>
+        <v>797.8888336339355</v>
       </c>
       <c r="F26" t="n">
-        <v>684.4865292355609</v>
+        <v>434.3525617924013</v>
       </c>
       <c r="G26" t="n">
-        <v>316.8637120286306</v>
+        <v>66.7297445854711</v>
       </c>
       <c r="H26" t="n">
-        <v>66.72974458547107</v>
+        <v>66.7297445854711</v>
       </c>
       <c r="I26" t="n">
-        <v>66.72974458547107</v>
+        <v>66.7297445854711</v>
       </c>
       <c r="J26" t="n">
         <v>255.6088755444965</v>
       </c>
       <c r="K26" t="n">
-        <v>589.428249234343</v>
+        <v>589.4282492343428</v>
       </c>
       <c r="L26" t="n">
         <v>1040.462462482752</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.994367154676</v>
+        <v>1584.658146665773</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.773184213459</v>
+        <v>2131.436963724555</v>
       </c>
       <c r="O26" t="n">
-        <v>2634.409434603891</v>
+        <v>2634.409434603892</v>
       </c>
       <c r="P26" t="n">
-        <v>3029.183800961069</v>
+        <v>3029.18380096107</v>
       </c>
       <c r="Q26" t="n">
-        <v>3277.470162716751</v>
+        <v>3277.470162716752</v>
       </c>
       <c r="R26" t="n">
         <v>3336.487229273554</v>
       </c>
       <c r="S26" t="n">
-        <v>3336.487229273554</v>
+        <v>3273.646193748723</v>
       </c>
       <c r="T26" t="n">
-        <v>3177.959114605849</v>
+        <v>3115.118079081018</v>
       </c>
       <c r="U26" t="n">
-        <v>2971.878270827759</v>
+        <v>2909.037235302928</v>
       </c>
       <c r="V26" t="n">
-        <v>2688.265016432261</v>
+        <v>2625.42398090743</v>
       </c>
       <c r="W26" t="n">
-        <v>2688.265016432261</v>
+        <v>2320.104958585389</v>
       </c>
       <c r="X26" t="n">
-        <v>2362.248891119255</v>
+        <v>1994.088833272383</v>
       </c>
       <c r="Y26" t="n">
-        <v>2019.559192091516</v>
+        <v>1769.367990401</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.7614826343962</v>
+        <v>941.7614826343959</v>
       </c>
       <c r="C27" t="n">
-        <v>767.3084533532692</v>
+        <v>767.3084533532689</v>
       </c>
       <c r="D27" t="n">
-        <v>618.3740436920179</v>
+        <v>618.3740436920176</v>
       </c>
       <c r="E27" t="n">
-        <v>459.1365886865625</v>
+        <v>459.1365886865621</v>
       </c>
       <c r="F27" t="n">
-        <v>312.6020307134474</v>
+        <v>312.6020307134471</v>
       </c>
       <c r="G27" t="n">
-        <v>176.2389305460656</v>
+        <v>176.2389305460652</v>
       </c>
       <c r="H27" t="n">
-        <v>85.7370361839331</v>
+        <v>85.73703618393272</v>
       </c>
       <c r="I27" t="n">
-        <v>66.72974458547107</v>
+        <v>66.7297445854711</v>
       </c>
       <c r="J27" t="n">
         <v>160.4070140760884</v>
@@ -6309,10 +6309,10 @@
         <v>398.6712130564355</v>
       </c>
       <c r="L27" t="n">
-        <v>765.3693733691009</v>
+        <v>765.3693733691007</v>
       </c>
       <c r="M27" t="n">
-        <v>1212.645698591417</v>
+        <v>1212.645698591416</v>
       </c>
       <c r="N27" t="n">
         <v>1686.168742145871</v>
@@ -6324,7 +6324,7 @@
         <v>2407.629613040029</v>
       </c>
       <c r="Q27" t="n">
-        <v>2565.271170686629</v>
+        <v>2565.271170686628</v>
       </c>
       <c r="R27" t="n">
         <v>2565.126817279144</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>759.6838779585817</v>
+        <v>759.6838779585815</v>
       </c>
       <c r="C28" t="n">
         <v>638.197327978748</v>
       </c>
       <c r="D28" t="n">
-        <v>535.5303215144856</v>
+        <v>535.5303215144854</v>
       </c>
       <c r="E28" t="n">
-        <v>435.0668608801659</v>
+        <v>435.0668608801657</v>
       </c>
       <c r="F28" t="n">
-        <v>335.6265463303289</v>
+        <v>335.6265463303287</v>
       </c>
       <c r="G28" t="n">
         <v>215.373342653121</v>
@@ -6379,16 +6379,16 @@
         <v>116.6057888190523</v>
       </c>
       <c r="I28" t="n">
-        <v>66.72974458547107</v>
+        <v>66.7297445854711</v>
       </c>
       <c r="J28" t="n">
-        <v>158.3577622848133</v>
+        <v>158.3577622848132</v>
       </c>
       <c r="K28" t="n">
-        <v>408.8503304860963</v>
+        <v>408.8503304860961</v>
       </c>
       <c r="L28" t="n">
-        <v>771.915514186999</v>
+        <v>771.9155141869988</v>
       </c>
       <c r="M28" t="n">
         <v>1162.577945038954</v>
@@ -6400,7 +6400,7 @@
         <v>1896.326691170045</v>
       </c>
       <c r="P28" t="n">
-        <v>2175.439576856112</v>
+        <v>2175.439576856111</v>
       </c>
       <c r="Q28" t="n">
         <v>2299.555258261033</v>
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1768.556402935122</v>
+        <v>1680.351750728111</v>
       </c>
       <c r="C29" t="n">
-        <v>1447.043518942784</v>
+        <v>1358.838866735773</v>
       </c>
       <c r="D29" t="n">
-        <v>1136.227453284107</v>
+        <v>1048.022801077095</v>
       </c>
       <c r="E29" t="n">
-        <v>797.8888336339355</v>
+        <v>1048.022801077095</v>
       </c>
       <c r="F29" t="n">
-        <v>434.3525617924013</v>
+        <v>684.4865292355609</v>
       </c>
       <c r="G29" t="n">
-        <v>66.72974458547107</v>
+        <v>316.8637120286306</v>
       </c>
       <c r="H29" t="n">
-        <v>66.72974458547107</v>
+        <v>66.7297445854711</v>
       </c>
       <c r="I29" t="n">
-        <v>66.72974458547107</v>
+        <v>66.7297445854711</v>
       </c>
       <c r="J29" t="n">
         <v>255.6088755444965</v>
       </c>
       <c r="K29" t="n">
-        <v>589.428249234343</v>
+        <v>589.4282492343428</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.462462482752</v>
+        <v>1051.126241993848</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.994367154676</v>
+        <v>1584.658146665773</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.773184213459</v>
+        <v>2131.436963724555</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.745655092795</v>
+        <v>2634.409434603892</v>
       </c>
       <c r="P29" t="n">
-        <v>3029.183800961069</v>
+        <v>3029.18380096107</v>
       </c>
       <c r="Q29" t="n">
-        <v>3277.470162716751</v>
+        <v>3277.470162716752</v>
       </c>
       <c r="R29" t="n">
         <v>3336.487229273554</v>
       </c>
       <c r="S29" t="n">
-        <v>3336.487229273554</v>
+        <v>3273.646193748723</v>
       </c>
       <c r="T29" t="n">
-        <v>3245.409429574537</v>
+        <v>3115.118079081018</v>
       </c>
       <c r="U29" t="n">
-        <v>3039.328585796447</v>
+        <v>2909.037235302928</v>
       </c>
       <c r="V29" t="n">
-        <v>2755.71533140095</v>
+        <v>2625.423980907431</v>
       </c>
       <c r="W29" t="n">
-        <v>2450.396309078909</v>
+        <v>2320.10495858539</v>
       </c>
       <c r="X29" t="n">
-        <v>2450.396309078909</v>
+        <v>2320.10495858539</v>
       </c>
       <c r="Y29" t="n">
-        <v>2107.706610051171</v>
+        <v>2019.50195784416</v>
       </c>
     </row>
     <row r="30">
@@ -6516,40 +6516,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.7614826343962</v>
+        <v>941.7614826343956</v>
       </c>
       <c r="C30" t="n">
-        <v>767.3084533532692</v>
+        <v>767.3084533532686</v>
       </c>
       <c r="D30" t="n">
-        <v>618.3740436920179</v>
+        <v>618.3740436920175</v>
       </c>
       <c r="E30" t="n">
-        <v>459.1365886865625</v>
+        <v>459.1365886865619</v>
       </c>
       <c r="F30" t="n">
-        <v>312.6020307134474</v>
+        <v>312.602030713447</v>
       </c>
       <c r="G30" t="n">
-        <v>176.2389305460656</v>
+        <v>176.2389305460655</v>
       </c>
       <c r="H30" t="n">
-        <v>85.7370361839331</v>
+        <v>85.73703618393301</v>
       </c>
       <c r="I30" t="n">
-        <v>66.72974458547107</v>
+        <v>66.7297445854711</v>
       </c>
       <c r="J30" t="n">
-        <v>160.4070140760884</v>
+        <v>160.4070140760882</v>
       </c>
       <c r="K30" t="n">
-        <v>398.6712130564355</v>
+        <v>398.6712130564353</v>
       </c>
       <c r="L30" t="n">
-        <v>765.3693733691009</v>
+        <v>765.3693733691006</v>
       </c>
       <c r="M30" t="n">
-        <v>1212.645698591417</v>
+        <v>1212.645698591416</v>
       </c>
       <c r="N30" t="n">
         <v>1686.168742145871</v>
@@ -6561,7 +6561,7 @@
         <v>2407.629613040029</v>
       </c>
       <c r="Q30" t="n">
-        <v>2565.271170686629</v>
+        <v>2565.271170686628</v>
       </c>
       <c r="R30" t="n">
         <v>2565.126817279144</v>
@@ -6579,7 +6579,7 @@
         <v>1779.825975353152</v>
       </c>
       <c r="W30" t="n">
-        <v>1525.588618624951</v>
+        <v>1525.58861862495</v>
       </c>
       <c r="X30" t="n">
         <v>1317.737118419418</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>759.683877958582</v>
+        <v>759.6838779585811</v>
       </c>
       <c r="C31" t="n">
-        <v>638.1973279787484</v>
+        <v>638.1973279787475</v>
       </c>
       <c r="D31" t="n">
-        <v>535.530321514486</v>
+        <v>535.5303215144851</v>
       </c>
       <c r="E31" t="n">
-        <v>435.0668608801661</v>
+        <v>435.0668608801652</v>
       </c>
       <c r="F31" t="n">
-        <v>335.6265463303291</v>
+        <v>335.6265463303284</v>
       </c>
       <c r="G31" t="n">
-        <v>215.3733426531213</v>
+        <v>215.3733426531211</v>
       </c>
       <c r="H31" t="n">
         <v>116.6057888190524</v>
       </c>
       <c r="I31" t="n">
-        <v>66.72974458547107</v>
+        <v>66.7297445854711</v>
       </c>
       <c r="J31" t="n">
         <v>158.3577622848132</v>
@@ -6628,13 +6628,13 @@
         <v>771.915514186999</v>
       </c>
       <c r="M31" t="n">
-        <v>1162.577945038955</v>
+        <v>1162.577945038954</v>
       </c>
       <c r="N31" t="n">
-        <v>1550.491706997226</v>
+        <v>1550.491706997225</v>
       </c>
       <c r="O31" t="n">
-        <v>1896.326691170046</v>
+        <v>1896.326691170045</v>
       </c>
       <c r="P31" t="n">
         <v>2175.439576856112</v>
@@ -6655,16 +6655,16 @@
         <v>1696.96796633285</v>
       </c>
       <c r="V31" t="n">
-        <v>1489.733111075037</v>
+        <v>1489.733111075036</v>
       </c>
       <c r="W31" t="n">
-        <v>1247.765573986149</v>
+        <v>1247.765573986148</v>
       </c>
       <c r="X31" t="n">
-        <v>1067.225656036205</v>
+        <v>1067.225656036204</v>
       </c>
       <c r="Y31" t="n">
-        <v>893.8827098407485</v>
+        <v>893.8827098407476</v>
       </c>
     </row>
     <row r="32">
@@ -6677,31 +6677,31 @@
         <v>1715.929751842702</v>
       </c>
       <c r="C32" t="n">
-        <v>1444.876970939626</v>
+        <v>1444.876970939627</v>
       </c>
       <c r="D32" t="n">
-        <v>1184.521008370212</v>
+        <v>1184.521008370213</v>
       </c>
       <c r="E32" t="n">
-        <v>896.6424918093048</v>
+        <v>896.6424918093056</v>
       </c>
       <c r="F32" t="n">
-        <v>583.5663230570341</v>
+        <v>583.5663230570347</v>
       </c>
       <c r="G32" t="n">
         <v>266.4036089393673</v>
       </c>
       <c r="H32" t="n">
-        <v>66.72974458547107</v>
+        <v>66.7297445854711</v>
       </c>
       <c r="I32" t="n">
-        <v>66.72974458547107</v>
+        <v>66.7297445854711</v>
       </c>
       <c r="J32" t="n">
         <v>255.6088755444965</v>
       </c>
       <c r="K32" t="n">
-        <v>589.428249234343</v>
+        <v>589.4282492343428</v>
       </c>
       <c r="L32" t="n">
         <v>1040.462462482752</v>
@@ -6710,22 +6710,22 @@
         <v>1573.994367154676</v>
       </c>
       <c r="N32" t="n">
-        <v>2131.436963724554</v>
+        <v>2120.773184213458</v>
       </c>
       <c r="O32" t="n">
-        <v>2634.409434603891</v>
+        <v>2623.745655092795</v>
       </c>
       <c r="P32" t="n">
-        <v>3029.183800961069</v>
+        <v>3029.18380096107</v>
       </c>
       <c r="Q32" t="n">
-        <v>3277.470162716751</v>
+        <v>3277.470162716752</v>
       </c>
       <c r="R32" t="n">
         <v>3336.487229273554</v>
       </c>
       <c r="S32" t="n">
-        <v>3324.106296837985</v>
+        <v>3324.106296837986</v>
       </c>
       <c r="T32" t="n">
         <v>3216.038285259544</v>
@@ -6737,7 +6737,7 @@
         <v>2827.264393264483</v>
       </c>
       <c r="W32" t="n">
-        <v>2572.405474031705</v>
+        <v>2572.405474031706</v>
       </c>
       <c r="X32" t="n">
         <v>2296.849451807962</v>
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.7614826343962</v>
+        <v>941.7614826343959</v>
       </c>
       <c r="C33" t="n">
-        <v>767.3084533532692</v>
+        <v>767.3084533532689</v>
       </c>
       <c r="D33" t="n">
-        <v>618.3740436920179</v>
+        <v>618.3740436920176</v>
       </c>
       <c r="E33" t="n">
-        <v>459.1365886865625</v>
+        <v>459.1365886865621</v>
       </c>
       <c r="F33" t="n">
-        <v>312.6020307134474</v>
+        <v>312.6020307134471</v>
       </c>
       <c r="G33" t="n">
-        <v>176.2389305460656</v>
+        <v>176.2389305460652</v>
       </c>
       <c r="H33" t="n">
-        <v>85.7370361839331</v>
+        <v>85.73703618393272</v>
       </c>
       <c r="I33" t="n">
-        <v>66.72974458547107</v>
+        <v>66.7297445854711</v>
       </c>
       <c r="J33" t="n">
         <v>160.4070140760884</v>
@@ -6783,10 +6783,10 @@
         <v>398.6712130564355</v>
       </c>
       <c r="L33" t="n">
-        <v>765.3693733691009</v>
+        <v>765.3693733691007</v>
       </c>
       <c r="M33" t="n">
-        <v>1212.645698591417</v>
+        <v>1212.645698591416</v>
       </c>
       <c r="N33" t="n">
         <v>1686.168742145871</v>
@@ -6798,7 +6798,7 @@
         <v>2407.629613040029</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.271170686629</v>
+        <v>2565.271170686628</v>
       </c>
       <c r="R33" t="n">
         <v>2565.126817279144</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>602.8666872640941</v>
+        <v>407.0472151894211</v>
       </c>
       <c r="C34" t="n">
-        <v>433.9305043361872</v>
+        <v>336.0207682988507</v>
       </c>
       <c r="D34" t="n">
-        <v>381.7236009611881</v>
+        <v>283.8138649238516</v>
       </c>
       <c r="E34" t="n">
-        <v>331.7202434161316</v>
+        <v>233.810507378795</v>
       </c>
       <c r="F34" t="n">
         <v>184.8302959182212</v>
@@ -6850,22 +6850,22 @@
         <v>115.0371953302767</v>
       </c>
       <c r="H34" t="n">
-        <v>66.72974458547107</v>
+        <v>66.7297445854711</v>
       </c>
       <c r="I34" t="n">
-        <v>66.72974458547107</v>
+        <v>66.7297445854711</v>
       </c>
       <c r="J34" t="n">
         <v>111.8523770324066</v>
       </c>
       <c r="K34" t="n">
-        <v>315.839559981283</v>
+        <v>315.8395599812829</v>
       </c>
       <c r="L34" t="n">
         <v>632.3993584297791</v>
       </c>
       <c r="M34" t="n">
-        <v>976.5564040293282</v>
+        <v>976.5564040293281</v>
       </c>
       <c r="N34" t="n">
         <v>1317.964780735193</v>
@@ -6874,34 +6874,34 @@
         <v>1617.294379655606</v>
       </c>
       <c r="P34" t="n">
-        <v>1849.901880089266</v>
+        <v>1849.901880089265</v>
       </c>
       <c r="Q34" t="n">
         <v>1927.51217624178</v>
       </c>
       <c r="R34" t="n">
-        <v>1927.51217624178</v>
+        <v>1892.495890632714</v>
       </c>
       <c r="S34" t="n">
-        <v>1833.736028105943</v>
+        <v>1700.81000645954</v>
       </c>
       <c r="T34" t="n">
-        <v>1611.969412675469</v>
+        <v>1576.953127066402</v>
       </c>
       <c r="U34" t="n">
-        <v>1322.866545801113</v>
+        <v>1385.759996229383</v>
       </c>
       <c r="V34" t="n">
-        <v>1131.075508023496</v>
+        <v>1228.985244060832</v>
       </c>
       <c r="W34" t="n">
-        <v>939.5680740238715</v>
+        <v>939.5680740238716</v>
       </c>
       <c r="X34" t="n">
-        <v>809.4882591631907</v>
+        <v>711.5785231258543</v>
       </c>
       <c r="Y34" t="n">
-        <v>686.6054160569972</v>
+        <v>490.7859439823242</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470372</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103804</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464971</v>
+        <v>894.1397680464968</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307329</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495726</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710111</v>
+        <v>3313.986587710107</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668172</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515852</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746125</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049855</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="36">
@@ -6990,70 +6990,70 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031485</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158139</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M36" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
         <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
         <v>1317.519490266131</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>740.9069705127572</v>
+        <v>543.5641013650716</v>
       </c>
       <c r="C37" t="n">
-        <v>670.6422221586936</v>
+        <v>430.6660820368714</v>
       </c>
       <c r="D37" t="n">
-        <v>619.1970173202012</v>
+        <v>280.5494426245357</v>
       </c>
       <c r="E37" t="n">
-        <v>527.3220873375171</v>
+        <v>231.3077836159862</v>
       </c>
       <c r="F37" t="n">
-        <v>380.4321398396067</v>
+        <v>183.0892706919194</v>
       </c>
       <c r="G37" t="n">
-        <v>212.7293032143257</v>
+        <v>114.057868640482</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J37" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L37" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N37" t="n">
         <v>1317.747152581905</v>
@@ -7114,16 +7114,16 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S37" t="n">
-        <v>1834.280098489162</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>1711.184917632532</v>
+        <v>1612.513483058688</v>
       </c>
       <c r="U37" t="n">
         <v>1422.082050758175</v>
@@ -7132,13 +7132,13 @@
         <v>1266.068997126132</v>
       </c>
       <c r="W37" t="n">
-        <v>1075.323261663014</v>
+        <v>976.6518270891715</v>
       </c>
       <c r="X37" t="n">
-        <v>946.0051453388403</v>
+        <v>748.6622761911542</v>
       </c>
       <c r="Y37" t="n">
-        <v>823.8840007691535</v>
+        <v>626.5411316214677</v>
       </c>
     </row>
     <row r="38">
@@ -7151,70 +7151,70 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307339</v>
       </c>
       <c r="G38" t="n">
-        <v>265.424282249573</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W38" t="n">
         <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
         <v>1999.070337960652</v>
@@ -7242,28 +7242,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>839.5784050866005</v>
+        <v>552.4050786964424</v>
       </c>
       <c r="C40" t="n">
-        <v>769.3136567325369</v>
+        <v>482.140330342379</v>
       </c>
       <c r="D40" t="n">
-        <v>675.2351809199101</v>
+        <v>430.6951255038868</v>
       </c>
       <c r="E40" t="n">
-        <v>527.322087337517</v>
+        <v>381.4534664953372</v>
       </c>
       <c r="F40" t="n">
-        <v>380.4321398396066</v>
+        <v>333.2349535712704</v>
       </c>
       <c r="G40" t="n">
-        <v>212.7293032143256</v>
+        <v>264.2035515198328</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J40" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L40" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N40" t="n">
         <v>1317.747152581905</v>
@@ -7351,31 +7351,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.280098489162</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>1711.184917632532</v>
+        <v>1522.683025816216</v>
       </c>
       <c r="U40" t="n">
-        <v>1520.753485332019</v>
+        <v>1233.58015894186</v>
       </c>
       <c r="V40" t="n">
-        <v>1364.740431699975</v>
+        <v>1077.567105309816</v>
       </c>
       <c r="W40" t="n">
-        <v>1173.994696236858</v>
+        <v>886.8213698466991</v>
       </c>
       <c r="X40" t="n">
-        <v>1044.676579912684</v>
+        <v>757.5032535225253</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.5554353429968</v>
+        <v>635.3821089528386</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7397,10 @@
         <v>894.1397680464972</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307331</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218342</v>
@@ -7409,25 +7409,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
@@ -7442,19 +7442,19 @@
         <v>3206.680274668175</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V41" t="n">
         <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
-        <v>2565.332559049856</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="42">
@@ -7479,28 +7479,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
         <v>2096.912393410638</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>543.5641013650711</v>
+        <v>453.7336441225987</v>
       </c>
       <c r="C43" t="n">
-        <v>473.2993530110076</v>
+        <v>383.4688957685352</v>
       </c>
       <c r="D43" t="n">
-        <v>323.1827135986719</v>
+        <v>332.023690930043</v>
       </c>
       <c r="E43" t="n">
-        <v>273.9410545901222</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F43" t="n">
         <v>183.0892706919198</v>
@@ -7567,16 +7567,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7588,31 +7588,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S43" t="n">
-        <v>1834.280098489163</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T43" t="n">
-        <v>1711.184917632532</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U43" t="n">
-        <v>1520.753485332019</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V43" t="n">
-        <v>1364.740431699975</v>
+        <v>978.8956707359725</v>
       </c>
       <c r="W43" t="n">
-        <v>1075.323261663015</v>
+        <v>788.1499352728554</v>
       </c>
       <c r="X43" t="n">
-        <v>946.005145338841</v>
+        <v>658.8318189486815</v>
       </c>
       <c r="Y43" t="n">
-        <v>725.2125661953108</v>
+        <v>536.7106743789949</v>
       </c>
     </row>
     <row r="44">
@@ -7625,58 +7625,58 @@
         <v>1711.141932470374</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D44" t="n">
         <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464975</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F44" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307329</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U44" t="n">
         <v>3051.821232515855</v>
@@ -7701,37 +7701,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7743,34 +7743,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>839.5784050866014</v>
+        <v>500.9308303909355</v>
       </c>
       <c r="C46" t="n">
-        <v>769.3136567325379</v>
+        <v>430.666082036872</v>
       </c>
       <c r="D46" t="n">
-        <v>619.1970173202021</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E46" t="n">
-        <v>525.9763299453282</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F46" t="n">
-        <v>477.7578170212613</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G46" t="n">
-        <v>310.0549803959803</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L46" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
@@ -7825,31 +7825,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S46" t="n">
-        <v>1834.280098489163</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T46" t="n">
         <v>1711.184917632532</v>
       </c>
       <c r="U46" t="n">
-        <v>1520.753485332019</v>
+        <v>1422.082050758175</v>
       </c>
       <c r="V46" t="n">
-        <v>1364.740431699975</v>
+        <v>1266.068997126132</v>
       </c>
       <c r="W46" t="n">
-        <v>1173.994696236858</v>
+        <v>1075.323261663015</v>
       </c>
       <c r="X46" t="n">
-        <v>1044.676579912684</v>
+        <v>847.3337107649972</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.5554353429977</v>
+        <v>626.5411316214671</v>
       </c>
     </row>
   </sheetData>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>213.8677805682741</v>
+        <v>213.8677805682739</v>
       </c>
       <c r="L8" t="n">
-        <v>228.0473863505256</v>
+        <v>228.0473863505252</v>
       </c>
       <c r="M8" t="n">
-        <v>221.7573265905346</v>
+        <v>221.7573265905343</v>
       </c>
       <c r="N8" t="n">
-        <v>220.6851794710449</v>
+        <v>220.6851794710446</v>
       </c>
       <c r="O8" t="n">
-        <v>221.8567179355893</v>
+        <v>221.8567179355889</v>
       </c>
       <c r="P8" t="n">
-        <v>224.199071738576</v>
+        <v>224.1990717385757</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>124.3650025758401</v>
+        <v>124.36500257584</v>
       </c>
       <c r="K9" t="n">
-        <v>133.6153305693655</v>
+        <v>133.6153305693653</v>
       </c>
       <c r="L9" t="n">
-        <v>132.8718554951904</v>
+        <v>132.8718554951902</v>
       </c>
       <c r="M9" t="n">
-        <v>135.5027961091473</v>
+        <v>135.502796109147</v>
       </c>
       <c r="N9" t="n">
-        <v>124.5349651374195</v>
+        <v>124.5349651374192</v>
       </c>
       <c r="O9" t="n">
-        <v>136.3694007948891</v>
+        <v>136.3694007948888</v>
       </c>
       <c r="P9" t="n">
-        <v>128.9768164173287</v>
+        <v>128.9768164173285</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.6410168537937</v>
+        <v>136.6410168537936</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,16 +8614,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>131.6226139202308</v>
+        <v>131.6226139202307</v>
       </c>
       <c r="M10" t="n">
-        <v>135.4863965628153</v>
+        <v>135.4863965628152</v>
       </c>
       <c r="N10" t="n">
-        <v>124.3279380250449</v>
+        <v>124.3279380250448</v>
       </c>
       <c r="O10" t="n">
-        <v>135.3552454599788</v>
+        <v>135.3552454599786</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>10.77149445565146</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>10.77149445565348</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-13</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9881,13 +9881,13 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>10.77149445565351</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>10.77149445565158</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-13</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>10.77149445565351</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>10.77149445565169</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10358,13 +10358,13 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>10.77149445565158</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>10.77149445565328</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>4.440892098500626e-13</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>-4.695133171139787e-13</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10601,13 +10601,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>1.392663762089796e-12</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
         <v>318.297755152415</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>55.87771033586807</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>110.8592935292157</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23504,13 +23504,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>34.91266345082465</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>339.262802037461</v>
+        <v>102.4006336413271</v>
       </c>
     </row>
     <row r="15">
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>52.28225787287923</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>52.28225787287566</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -24026,13 +24026,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>52.28225787287566</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>52.28225787287981</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24218,7 +24218,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>41.72511615689217</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24266,7 +24266,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>41.72511615689143</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24449,7 +24449,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>334.8985715487859</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24491,7 +24491,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958326</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24503,13 +24503,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988205</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>116.7891675947918</v>
       </c>
     </row>
     <row r="27">
@@ -24686,7 +24686,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24695,7 +24695,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24728,10 +24728,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958328</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>66.77581181900135</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24746,7 +24746,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>41.66583130364284</v>
       </c>
     </row>
     <row r="30">
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>913921.0732822551</v>
+        <v>913921.073282255</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>758836.5018728678</v>
+        <v>758836.501872868</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>809876.8668144335</v>
+        <v>809876.8668144332</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>809876.8668144335</v>
+        <v>809876.8668144332</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>760127.4176687138</v>
+        <v>760127.417668714</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>760127.4176687138</v>
+        <v>760127.4176687141</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>814406.0688752158</v>
+        <v>814406.0688752159</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>813934.4928479474</v>
+        <v>813934.4928479475</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>634939.1625057047</v>
+        <v>634939.1625057048</v>
       </c>
       <c r="C2" t="n">
-        <v>634939.1625057047</v>
+        <v>634939.1625057048</v>
       </c>
       <c r="D2" t="n">
-        <v>634942.1800230953</v>
+        <v>634942.1800230951</v>
       </c>
       <c r="E2" t="n">
-        <v>592511.5326646278</v>
+        <v>592511.5326646285</v>
       </c>
       <c r="F2" t="n">
-        <v>592511.5326646279</v>
+        <v>592511.5326646284</v>
       </c>
       <c r="G2" t="n">
-        <v>633082.0791566424</v>
+        <v>633082.0791566422</v>
       </c>
       <c r="H2" t="n">
-        <v>633082.0791566424</v>
+        <v>633082.0791566422</v>
       </c>
       <c r="I2" t="n">
-        <v>633733.3492291012</v>
+        <v>633733.3492291016</v>
       </c>
       <c r="J2" t="n">
-        <v>593162.8027370875</v>
+        <v>593162.8027370877</v>
       </c>
       <c r="K2" t="n">
-        <v>593162.8027370875</v>
+        <v>593162.802737087</v>
       </c>
       <c r="L2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448193</v>
       </c>
       <c r="M2" t="n">
-        <v>636307.3716448192</v>
+        <v>636307.3716448193</v>
       </c>
       <c r="N2" t="n">
         <v>636307.37164482</v>
       </c>
       <c r="O2" t="n">
-        <v>636307.3716448202</v>
+        <v>636307.37164482</v>
       </c>
       <c r="P2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448195</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>10420.33926655437</v>
+        <v>10420.33926655481</v>
       </c>
       <c r="E3" t="n">
         <v>1151572.830875721</v>
@@ -26378,13 +26378,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.10929487414</v>
+        <v>37580.10929487376</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>723.3987018800377</v>
+        <v>723.3987018802383</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>77544.51094157065</v>
+        <v>77544.51094157045</v>
       </c>
       <c r="M3" t="n">
         <v>207113.9109540877</v>
@@ -26421,43 +26421,43 @@
         <v>463150.7311021098</v>
       </c>
       <c r="D4" t="n">
-        <v>459028.1883762665</v>
+        <v>459028.1883762663</v>
       </c>
       <c r="E4" t="n">
-        <v>61265.27723866007</v>
+        <v>61265.27723866006</v>
       </c>
       <c r="F4" t="n">
-        <v>61265.27723866007</v>
+        <v>61265.27723866006</v>
       </c>
       <c r="G4" t="n">
-        <v>91028.44393036216</v>
+        <v>91028.443930362</v>
       </c>
       <c r="H4" t="n">
-        <v>91028.44393036216</v>
+        <v>91028.44393036203</v>
       </c>
       <c r="I4" t="n">
         <v>91501.30607406859</v>
       </c>
       <c r="J4" t="n">
-        <v>61738.13938236651</v>
+        <v>61738.1393823666</v>
       </c>
       <c r="K4" t="n">
-        <v>61738.13938236649</v>
+        <v>61738.13938236659</v>
       </c>
       <c r="L4" t="n">
-        <v>93397.00574718689</v>
+        <v>93397.00574718698</v>
       </c>
       <c r="M4" t="n">
-        <v>93403.78684820635</v>
+        <v>93403.78684820642</v>
       </c>
       <c r="N4" t="n">
-        <v>93403.78684820628</v>
+        <v>93403.78684820641</v>
       </c>
       <c r="O4" t="n">
-        <v>93403.78684820633</v>
+        <v>93403.78684820636</v>
       </c>
       <c r="P4" t="n">
-        <v>93403.78684820633</v>
+        <v>93403.78684820642</v>
       </c>
     </row>
     <row r="5">
@@ -26473,19 +26473,19 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>33892.84951251484</v>
+        <v>33892.84951251485</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178177</v>
       </c>
       <c r="F5" t="n">
         <v>78255.49332178176</v>
       </c>
       <c r="G5" t="n">
-        <v>82204.64608217022</v>
+        <v>82204.64608217019</v>
       </c>
       <c r="H5" t="n">
-        <v>82204.64608217022</v>
+        <v>82204.64608217019</v>
       </c>
       <c r="I5" t="n">
         <v>82370.04347866884</v>
@@ -26494,22 +26494,22 @@
         <v>78420.89071828038</v>
       </c>
       <c r="K5" t="n">
-        <v>78420.89071828037</v>
+        <v>78420.89071828038</v>
       </c>
       <c r="L5" t="n">
         <v>82620.59982082553</v>
       </c>
       <c r="M5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624984</v>
       </c>
       <c r="N5" t="n">
         <v>82518.59730624985</v>
       </c>
       <c r="O5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624985</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>138160.8314035949</v>
+        <v>138156.4178257269</v>
       </c>
       <c r="C6" t="n">
-        <v>138160.8314035949</v>
+        <v>138156.4178257269</v>
       </c>
       <c r="D6" t="n">
-        <v>131600.8028677597</v>
+        <v>131596.3990238181</v>
       </c>
       <c r="E6" t="n">
-        <v>-698582.0687715348</v>
+        <v>-698723.3456714703</v>
       </c>
       <c r="F6" t="n">
-        <v>452990.7621041861</v>
+        <v>452849.4852042506</v>
       </c>
       <c r="G6" t="n">
-        <v>422268.8798492359</v>
+        <v>422258.4756799195</v>
       </c>
       <c r="H6" t="n">
-        <v>459848.9891441101</v>
+        <v>459838.5849747934</v>
       </c>
       <c r="I6" t="n">
-        <v>459138.6009744837</v>
+        <v>459130.2976763687</v>
       </c>
       <c r="J6" t="n">
-        <v>453003.7726364406</v>
+        <v>452864.5966077062</v>
       </c>
       <c r="K6" t="n">
-        <v>453003.7726364407</v>
+        <v>452864.5966077055</v>
       </c>
       <c r="L6" t="n">
         <v>382745.2551352363</v>
       </c>
       <c r="M6" t="n">
-        <v>253271.0765362752</v>
+        <v>253271.0765362753</v>
       </c>
       <c r="N6" t="n">
-        <v>460384.9874903638</v>
+        <v>460384.9874903637</v>
       </c>
       <c r="O6" t="n">
-        <v>460384.987490364</v>
+        <v>460384.9874903637</v>
       </c>
       <c r="P6" t="n">
-        <v>460384.9874903638</v>
+        <v>460384.9874903632</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>46.97513661859256</v>
       </c>
       <c r="G2" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718499</v>
       </c>
       <c r="H2" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718499</v>
       </c>
       <c r="I2" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>96.93063867696321</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810516</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="3">
@@ -26741,13 +26741,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>12.16740883095602</v>
+        <v>12.16740883095654</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022931</v>
+      </c>
+      <c r="F4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="F4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>834.1218073183884</v>
+        <v>834.1218073183886</v>
       </c>
       <c r="J4" t="n">
-        <v>834.1218073183884</v>
+        <v>834.1218073183886</v>
       </c>
       <c r="K4" t="n">
-        <v>834.1218073183884</v>
+        <v>834.1218073183886</v>
       </c>
       <c r="L4" t="n">
-        <v>834.1218073183884</v>
+        <v>834.1218073183886</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26920,13 +26920,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>96.93063867696333</v>
+        <v>96.93063867696306</v>
       </c>
       <c r="M2" t="n">
-        <v>0.754081551141681</v>
+        <v>0.7540815511419652</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>12.16740883095602</v>
+        <v>12.16740883095654</v>
       </c>
       <c r="E3" t="n">
         <v>1077.609291762342</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2.720351916095524</v>
+        <v>2.720351916095979</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>828.6811034861973</v>
+        <v>828.6811034861967</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,13 +27157,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859268</v>
+        <v>46.97513661859242</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>9.947598300641403e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27871,10 +27871,10 @@
         <v>338.9738594999278</v>
       </c>
       <c r="I8" t="n">
-        <v>208.5901246298816</v>
+        <v>208.5901246298815</v>
       </c>
       <c r="J8" t="n">
-        <v>7.797757232938734</v>
+        <v>7.797757232938556</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,13 +27895,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.70851521296128</v>
+        <v>4.708515212961053</v>
       </c>
       <c r="R8" t="n">
-        <v>146.7965109261646</v>
+        <v>146.7965109261645</v>
       </c>
       <c r="S8" t="n">
-        <v>207.9054371089171</v>
+        <v>207.905437108917</v>
       </c>
       <c r="T8" t="n">
         <v>222.8817276258097</v>
@@ -27950,7 +27950,7 @@
         <v>111.9826835360647</v>
       </c>
       <c r="I9" t="n">
-        <v>88.49555587666975</v>
+        <v>88.49555587666971</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>98.53291113933169</v>
+        <v>98.53291113933162</v>
       </c>
       <c r="S9" t="n">
         <v>171.1970486849784</v>
@@ -28032,10 +28032,10 @@
         <v>154.7906423303271</v>
       </c>
       <c r="J10" t="n">
-        <v>91.80793522358515</v>
+        <v>91.80793522358509</v>
       </c>
       <c r="K10" t="n">
-        <v>19.7203199429383</v>
+        <v>19.72031994293819</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,13 +28050,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.06774881564685975</v>
+        <v>0.06774881564674562</v>
       </c>
       <c r="Q10" t="n">
-        <v>84.32476451822002</v>
+        <v>84.32476451821995</v>
       </c>
       <c r="R10" t="n">
-        <v>176.3068339332694</v>
+        <v>176.3068339332693</v>
       </c>
       <c r="S10" t="n">
         <v>223.6342222545306</v>
@@ -28108,7 +28108,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28345,7 +28345,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718499</v>
       </c>
       <c r="C17" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718499</v>
       </c>
       <c r="D17" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718499</v>
       </c>
       <c r="E17" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718499</v>
       </c>
       <c r="F17" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718499</v>
       </c>
       <c r="G17" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718499</v>
       </c>
       <c r="H17" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718499</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718499</v>
       </c>
       <c r="T17" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718499</v>
       </c>
       <c r="U17" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718499</v>
       </c>
       <c r="V17" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718499</v>
       </c>
       <c r="W17" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718499</v>
       </c>
       <c r="X17" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718499</v>
       </c>
       <c r="Y17" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718499</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>93.95027323718499</v>
       </c>
       <c r="C19" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718499</v>
       </c>
       <c r="D19" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718499</v>
       </c>
       <c r="E19" t="n">
-        <v>91.48995205464163</v>
+        <v>93.95027323718499</v>
       </c>
       <c r="F19" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718499</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>93.95027323718499</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>93.95027323718499</v>
       </c>
       <c r="I19" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718499</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,25 +28767,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718499</v>
       </c>
       <c r="T19" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718499</v>
       </c>
       <c r="U19" t="n">
-        <v>93.95027323718524</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>93.95027323718524</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718499</v>
       </c>
       <c r="X19" t="n">
-        <v>93.95027323718524</v>
+        <v>86.47183148750645</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718499</v>
       </c>
       <c r="C20" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718499</v>
       </c>
       <c r="D20" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718499</v>
       </c>
       <c r="E20" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718499</v>
       </c>
       <c r="F20" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718499</v>
       </c>
       <c r="G20" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718499</v>
       </c>
       <c r="H20" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718499</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718499</v>
       </c>
       <c r="T20" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718499</v>
       </c>
       <c r="U20" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718499</v>
       </c>
       <c r="V20" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718499</v>
       </c>
       <c r="W20" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718499</v>
       </c>
       <c r="X20" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718499</v>
       </c>
       <c r="Y20" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718499</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718499</v>
       </c>
       <c r="C22" t="n">
-        <v>93.95027323718524</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718499</v>
       </c>
       <c r="E22" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718499</v>
       </c>
       <c r="F22" t="n">
-        <v>91.48995205464149</v>
+        <v>93.95027323718499</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>93.95027323718499</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>93.95027323718499</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>93.95027323718499</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>93.95027323718499</v>
       </c>
       <c r="T22" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718499</v>
       </c>
       <c r="U22" t="n">
-        <v>93.95027323718524</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>93.95027323718524</v>
+        <v>91.48995205464414</v>
       </c>
       <c r="W22" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718499</v>
       </c>
       <c r="X22" t="n">
-        <v>93.95027323718524</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>93.95027323718524</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="C23" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="D23" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="E23" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="F23" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="G23" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="H23" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="T23" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="U23" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="V23" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="W23" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="X23" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="Y23" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718509</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.95027323718524</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="D25" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="E25" t="n">
-        <v>93.95027323718524</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="G25" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="H25" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="I25" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>93.95027323718524</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="T25" t="n">
-        <v>93.95027323718524</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>86.47183148750591</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>93.95027323718509</v>
       </c>
       <c r="Y25" t="n">
-        <v>91.48995205464161</v>
+        <v>93.95027323718509</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="29">
@@ -29530,7 +29530,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>96.93063867696321</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="C32" t="n">
-        <v>96.93063867696321</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="D32" t="n">
-        <v>96.93063867696321</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="E32" t="n">
-        <v>96.93063867696321</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="F32" t="n">
-        <v>96.93063867696321</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="G32" t="n">
-        <v>96.93063867696321</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="H32" t="n">
-        <v>96.93063867696321</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>96.93063867696321</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="T32" t="n">
-        <v>96.93063867696321</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="U32" t="n">
-        <v>96.93063867696321</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="V32" t="n">
-        <v>96.93063867696321</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="W32" t="n">
-        <v>96.93063867696321</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="X32" t="n">
-        <v>96.93063867696321</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="Y32" t="n">
-        <v>96.93063867696321</v>
+        <v>96.9306386769632</v>
       </c>
     </row>
     <row r="33">
@@ -29904,28 +29904,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>96.93063867696321</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="D34" t="n">
-        <v>96.93063867696321</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="E34" t="n">
-        <v>96.93063867696321</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="G34" t="n">
-        <v>96.93063867696321</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="H34" t="n">
-        <v>96.93063867696321</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -29952,28 +29952,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>54.26602991707176</v>
       </c>
       <c r="S34" t="n">
-        <v>96.93063867696321</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="V34" t="n">
-        <v>62.26451592398695</v>
+        <v>96.9306386769632</v>
       </c>
       <c r="W34" t="n">
-        <v>96.93063867696321</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>96.93063867696321</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>96.93063867696321</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810516</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810516</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810516</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810516</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810516</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810516</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810516</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810516</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810516</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810516</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810516</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810516</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810516</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810516</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810516</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810489</v>
+        <v>55.47778196370972</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>55.47778196371193</v>
+        <v>97.68472022810516</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>97.68472022810516</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>97.68472022810516</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>97.68472022810516</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810516</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>97.68472022810516</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810516</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810516</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810506</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="D40" t="n">
-        <v>55.47778196371191</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>45.39291458738602</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810506</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810506</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810498</v>
+        <v>46.72521440565342</v>
       </c>
       <c r="F43" t="n">
-        <v>55.47778196371094</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810498</v>
+        <v>55.47778196371097</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>54.14548214544398</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810498</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810498</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04891420635560205</v>
+        <v>0.04891420635560415</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5009426158393097</v>
+        <v>0.5009426158393311</v>
       </c>
       <c r="I8" t="n">
-        <v>1.88576494052435</v>
+        <v>1.885764940524431</v>
       </c>
       <c r="J8" t="n">
-        <v>4.151532121673783</v>
+        <v>4.151532121673961</v>
       </c>
       <c r="K8" t="n">
-        <v>6.222070476706419</v>
+        <v>6.222070476706686</v>
       </c>
       <c r="L8" t="n">
-        <v>7.719028619461676</v>
+        <v>7.719028619462008</v>
       </c>
       <c r="M8" t="n">
-        <v>8.588906636738114</v>
+        <v>8.588906636738484</v>
       </c>
       <c r="N8" t="n">
-        <v>8.72788412554597</v>
+        <v>8.727884125546344</v>
       </c>
       <c r="O8" t="n">
-        <v>8.24149348609745</v>
+        <v>8.241493486097804</v>
       </c>
       <c r="P8" t="n">
-        <v>7.033924016693525</v>
+        <v>7.033924016693827</v>
       </c>
       <c r="Q8" t="n">
-        <v>5.282184001583524</v>
+        <v>5.282184001583751</v>
       </c>
       <c r="R8" t="n">
-        <v>3.07260701498509</v>
+        <v>3.072607014985222</v>
       </c>
       <c r="S8" t="n">
-        <v>1.114632477328283</v>
+        <v>1.114632477328331</v>
       </c>
       <c r="T8" t="n">
-        <v>0.2141219383216481</v>
+        <v>0.2141219383216573</v>
       </c>
       <c r="U8" t="n">
-        <v>0.003913136508448163</v>
+        <v>0.003913136508448331</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02617140767413181</v>
+        <v>0.02617140767413294</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2527607004317468</v>
+        <v>0.2527607004317576</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9010769747453279</v>
+        <v>0.9010769747453666</v>
       </c>
       <c r="J9" t="n">
-        <v>2.472624090826638</v>
+        <v>2.472624090826745</v>
       </c>
       <c r="K9" t="n">
-        <v>4.22610840499347</v>
+        <v>4.226108404993651</v>
       </c>
       <c r="L9" t="n">
-        <v>5.682524284683753</v>
+        <v>5.682524284683996</v>
       </c>
       <c r="M9" t="n">
-        <v>6.63123781287103</v>
+        <v>6.631237812871314</v>
       </c>
       <c r="N9" t="n">
-        <v>6.806746945913783</v>
+        <v>6.806746945914075</v>
       </c>
       <c r="O9" t="n">
-        <v>6.226843649555388</v>
+        <v>6.226843649555655</v>
       </c>
       <c r="P9" t="n">
-        <v>4.99759099700154</v>
+        <v>4.997590997001754</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.340757232227774</v>
+        <v>3.340757232227917</v>
       </c>
       <c r="R9" t="n">
-        <v>1.624923013311448</v>
+        <v>1.624923013311518</v>
       </c>
       <c r="S9" t="n">
-        <v>0.4861224188594218</v>
+        <v>0.4861224188594426</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1054891388268734</v>
+        <v>0.1054891388268779</v>
       </c>
       <c r="U9" t="n">
-        <v>0.001721803136456041</v>
+        <v>0.001721803136456115</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02194122903942888</v>
+        <v>0.02194122903942982</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1950774727323769</v>
+        <v>0.1950774727323853</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6598325969311888</v>
+        <v>0.6598325969312171</v>
       </c>
       <c r="J10" t="n">
-        <v>1.551244893087622</v>
+        <v>1.551244893087689</v>
       </c>
       <c r="K10" t="n">
-        <v>2.549171882944555</v>
+        <v>2.549171882944665</v>
       </c>
       <c r="L10" t="n">
-        <v>3.262062361007455</v>
+        <v>3.262062361007595</v>
       </c>
       <c r="M10" t="n">
-        <v>3.439387384789747</v>
+        <v>3.439387384789895</v>
       </c>
       <c r="N10" t="n">
-        <v>3.357606440188242</v>
+        <v>3.357606440188386</v>
       </c>
       <c r="O10" t="n">
-        <v>3.101292991864004</v>
+        <v>3.101292991864137</v>
       </c>
       <c r="P10" t="n">
-        <v>2.653691919459652</v>
+        <v>2.653691919459766</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.837278733474359</v>
+        <v>1.837278733474438</v>
       </c>
       <c r="R10" t="n">
-        <v>0.9865574439001384</v>
+        <v>0.9865574439001809</v>
       </c>
       <c r="S10" t="n">
-        <v>0.3823757824416832</v>
+        <v>0.3823757824416996</v>
       </c>
       <c r="T10" t="n">
-        <v>0.09374888771392338</v>
+        <v>0.09374888771392741</v>
       </c>
       <c r="U10" t="n">
-        <v>0.001196794311241577</v>
+        <v>0.001196794311241628</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31759,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31996,40 +31996,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32148,43 +32148,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353154</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,10 +34205,10 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34217,28 +34217,28 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K13" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M13" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O13" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P13" t="n">
         <v>281.932207763703</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35805,7 +35805,7 @@
         <v>92.55355323165881</v>
       </c>
       <c r="K16" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L16" t="n">
         <v>366.7325087887908</v>
@@ -35814,16 +35814,16 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N16" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O16" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P16" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>549.6926102858782</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>261.5657992593729</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609564</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>549.6926102858801</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>518.8244953438707</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,16 +36750,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N28" t="n">
         <v>391.8320827861326</v>
@@ -36768,7 +36768,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>466.3616088479855</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>409.5334806750236</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,16 +36987,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N31" t="n">
         <v>391.8320827861326</v>
@@ -37005,7 +37005,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>563.0733298685631</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>409.5334806750249</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37239,13 +37239,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219371</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222617</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37476,13 +37476,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597745</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37713,13 +37713,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597743</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37865,19 +37865,19 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37950,13 +37950,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923326</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38187,13 +38187,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
